--- a/tools/luban/Datas/Skills.xlsx
+++ b/tools/luban/Datas/Skills.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\DataBase\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\tools\luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{073BD037-C3B1-4D8D-931C-25C029586D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D7B698F-B3B2-4E7F-B0D1-C0805D57E9AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1016,7 +1016,7 @@
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomLeft" activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1212,7 +1212,7 @@
         <v>20</v>
       </c>
       <c r="J5" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K5" s="3">
         <v>0</v>
@@ -1254,7 +1254,7 @@
         <v>20</v>
       </c>
       <c r="J6" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K6" s="3">
         <v>0</v>
@@ -1296,7 +1296,7 @@
         <v>20</v>
       </c>
       <c r="J7" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K7" s="3">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>20</v>
       </c>
       <c r="J8" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
@@ -1380,13 +1380,13 @@
         <v>20</v>
       </c>
       <c r="J9" s="3">
+        <v>3</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
         <v>1</v>
-      </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3">
-        <v>0</v>
       </c>
       <c r="M9" s="3" t="b">
         <v>0</v>
@@ -1422,7 +1422,7 @@
         <v>20</v>
       </c>
       <c r="J10" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K10" s="3">
         <v>0</v>
@@ -1464,7 +1464,7 @@
         <v>20</v>
       </c>
       <c r="J11" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K11" s="3">
         <v>0</v>
@@ -1506,7 +1506,7 @@
         <v>20</v>
       </c>
       <c r="J12" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K12" s="3">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>10</v>
       </c>
       <c r="J13" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K13" s="3">
         <v>0</v>

--- a/tools/luban/Datas/Skills.xlsx
+++ b/tools/luban/Datas/Skills.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\tools\luban\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Godot\AwesomeRPG\tools\luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D7B698F-B3B2-4E7F-B0D1-C0805D57E9AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9661B86D-DDB0-4FE1-8E51-58FC47592865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Trees" sheetId="1" r:id="rId1"/>
@@ -188,10 +188,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>开冲！速度 +200，持续 5 秒。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>消耗类型</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -286,10 +282,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>每损失 100 点生命，获得 10% 的攻速、速度、伤害加成。持续 3 秒。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>冰锥</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -337,15 +329,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>不断对自身一定范围内的敌人造成 37% 武器攻击伤害。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>释放该技能向前发射 1 个火球，击中时造成 240% 武器攻击伤害。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>立即恢复 300 生命。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -390,6 +374,22 @@
   </si>
   <si>
     <t>生成一个护盾，+6%的毒素抗性和物理抗性。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>立即恢复 50% 最大生命。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每损失 100 点生命，获得 10% 的攻速、速度、伤害加成。持续 5 秒。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不断对自身一定范围内的敌人造成 37% 攻击伤害。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开冲！速度 +200，持续 10 秒。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -765,18 +765,18 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.75" customWidth="1"/>
-    <col min="5" max="5" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.77734375" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -793,13 +793,13 @@
         <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -822,7 +822,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -833,7 +833,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -850,96 +850,96 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A5" s="3"/>
       <c r="B5" s="3">
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A6" s="3"/>
       <c r="B6" s="3">
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F6" s="3">
         <v>1</v>
       </c>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A7" s="3"/>
       <c r="B7" s="3">
         <v>2</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F7" s="3">
         <v>1</v>
       </c>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A8" s="3"/>
       <c r="B8" s="3">
         <v>3</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F8" s="3">
         <v>1</v>
       </c>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A9" s="3"/>
       <c r="B9" s="3">
         <v>4</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F9" s="3">
         <v>1</v>
       </c>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -948,7 +948,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -957,7 +957,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -966,7 +966,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -975,7 +975,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -984,7 +984,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -993,7 +993,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1016,26 +1016,26 @@
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="J9" sqref="J9"/>
+      <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="60.75" customWidth="1"/>
+    <col min="2" max="2" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="60.77734375" customWidth="1"/>
     <col min="5" max="6" width="18" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="9.75" customWidth="1"/>
+    <col min="8" max="8" width="9.77734375" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="11" width="5.625" customWidth="1"/>
-    <col min="12" max="12" width="7.25" customWidth="1"/>
-    <col min="13" max="13" width="13.875" customWidth="1"/>
-    <col min="14" max="14" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="5.6640625" customWidth="1"/>
+    <col min="12" max="12" width="7.21875" customWidth="1"/>
+    <col min="13" max="13" width="13.88671875" customWidth="1"/>
+    <col min="14" max="14" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1052,16 +1052,16 @@
         <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>39</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>12</v>
@@ -1079,7 +1079,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1102,7 +1102,7 @@
         <v>35</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>14</v>
@@ -1123,7 +1123,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1141,7 +1141,7 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -1155,19 +1155,19 @@
         <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>40</v>
       </c>
       <c r="H4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>15</v>
@@ -1185,7 +1185,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A5" s="3"/>
       <c r="B5" s="3">
         <v>4002</v>
@@ -1194,10 +1194,10 @@
         <v>17</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F5" s="3">
         <v>300</v>
@@ -1206,13 +1206,13 @@
         <v>1</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I5" s="3">
         <v>20</v>
       </c>
       <c r="J5" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K5" s="3">
         <v>0</v>
@@ -1227,7 +1227,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A6" s="3"/>
       <c r="B6" s="3">
         <v>4003</v>
@@ -1236,10 +1236,10 @@
         <v>25</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F6" s="3">
         <v>200</v>
@@ -1248,19 +1248,19 @@
         <v>0</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I6" s="3">
         <v>20</v>
       </c>
       <c r="J6" s="3">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="K6" s="3">
         <v>0</v>
       </c>
       <c r="L6" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M6" s="3" t="b">
         <v>0</v>
@@ -1269,7 +1269,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A7" s="3"/>
       <c r="B7" s="3">
         <v>4004</v>
@@ -1278,10 +1278,10 @@
         <v>27</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F7" s="3">
         <v>300</v>
@@ -1290,13 +1290,13 @@
         <v>0</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I7" s="3">
         <v>20</v>
       </c>
       <c r="J7" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K7" s="3">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A8" s="3"/>
       <c r="B8" s="3">
         <v>4005</v>
@@ -1323,7 +1323,7 @@
         <v>30</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F8" s="3">
         <v>300</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I8" s="3">
         <v>20</v>
@@ -1353,19 +1353,19 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A9" s="3"/>
       <c r="B9" s="3">
         <v>4006</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="F9" s="3">
         <v>300</v>
@@ -1374,7 +1374,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I9" s="3">
         <v>20</v>
@@ -1392,22 +1392,22 @@
         <v>0</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A10" s="3"/>
       <c r="B10" s="3">
         <v>4007</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F10" s="3">
         <v>300</v>
@@ -1416,13 +1416,13 @@
         <v>0</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I10" s="3">
         <v>20</v>
       </c>
       <c r="J10" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K10" s="3">
         <v>0</v>
@@ -1434,22 +1434,22 @@
         <v>0</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A11" s="3"/>
       <c r="B11" s="3">
         <v>4008</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="E11" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F11" s="3">
         <v>300</v>
@@ -1458,13 +1458,13 @@
         <v>0</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I11" s="3">
         <v>20</v>
       </c>
       <c r="J11" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K11" s="3">
         <v>0</v>
@@ -1476,22 +1476,22 @@
         <v>0</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A12" s="3"/>
       <c r="B12" s="3">
         <v>4009</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F12" s="3">
         <v>300</v>
@@ -1500,40 +1500,40 @@
         <v>0</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I12" s="3">
         <v>20</v>
       </c>
       <c r="J12" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K12" s="3">
         <v>0</v>
       </c>
       <c r="L12" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M12" s="3" t="b">
         <v>0</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="54" x14ac:dyDescent="0.35">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="54.45" x14ac:dyDescent="0.45">
       <c r="A13" s="3"/>
       <c r="B13" s="3">
         <v>4010</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F13" s="3">
         <v>300</v>
@@ -1542,13 +1542,13 @@
         <v>1</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I13" s="3">
         <v>10</v>
       </c>
       <c r="J13" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K13" s="3">
         <v>0</v>
@@ -1560,22 +1560,22 @@
         <v>0</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A14" s="3"/>
       <c r="B14" s="3">
         <v>4011</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>89</v>
-      </c>
       <c r="E14" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F14" s="3">
         <v>300</v>
@@ -1584,13 +1584,13 @@
         <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I14" s="3">
         <v>10</v>
       </c>
       <c r="J14" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1602,22 +1602,22 @@
         <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A15" s="3"/>
       <c r="B15" s="3">
         <v>4012</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F15" s="3">
         <v>300</v>
@@ -1626,13 +1626,13 @@
         <v>0</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I15" s="3">
         <v>10</v>
       </c>
       <c r="J15" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -1644,10 +1644,10 @@
         <v>0</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1663,7 +1663,7 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
     </row>
-    <row r="17" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1679,7 +1679,7 @@
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
     </row>
-    <row r="18" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1695,7 +1695,7 @@
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
     </row>
-    <row r="19" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1711,7 +1711,7 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
     </row>
-    <row r="20" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1727,7 +1727,7 @@
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
     </row>
-    <row r="21" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1743,7 +1743,7 @@
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
     </row>
-    <row r="22" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1759,7 +1759,7 @@
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
     </row>
-    <row r="23" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1775,7 +1775,7 @@
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
     </row>
-    <row r="24" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1791,7 +1791,7 @@
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
     </row>
-    <row r="25" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1807,7 +1807,7 @@
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
     </row>
-    <row r="26" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1823,7 +1823,7 @@
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
     </row>
-    <row r="27" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1839,7 +1839,7 @@
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
     </row>
-    <row r="28" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1855,7 +1855,7 @@
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
     </row>
-    <row r="29" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1871,7 +1871,7 @@
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
     </row>
-    <row r="30" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1887,7 +1887,7 @@
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
     </row>
-    <row r="31" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1917,14 +1917,14 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -1935,7 +1935,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>23</v>
       </c>
